--- a/Excel/CF4W/KombinasiData.xlsx
+++ b/Excel/CF4W/KombinasiData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UF-NEW\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fendy.tio\git\NAP-CF4W-UF-NEW\Excel\CF4W\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1806,7 +1806,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1815,16 +1824,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1833,13 +1839,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2144,19 +2144,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2175,12 +2175,12 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
       <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2231,9 +2231,9 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
@@ -4748,128 +4748,128 @@
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="32" t="s">
         <v>61</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="J32" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="K32" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="L32" s="29" t="s">
+      <c r="D32" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="32" t="s">
         <v>31</v>
       </c>
       <c r="M32" s="25"/>
       <c r="N32" s="25"/>
       <c r="O32" s="25"/>
-      <c r="P32" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q32" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="R32" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="S32" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="T32" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="U32" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="V32" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="W32" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="X32" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y32" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z32" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA32" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB32" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC32" s="29" t="s">
+      <c r="P32" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="S32" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="T32" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="V32" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="W32" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="X32" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y32" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z32" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA32" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB32" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC32" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="AD32" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE32" s="29" t="s">
+      <c r="AD32" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE32" s="32" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
       <c r="M33" s="26"/>
       <c r="N33" s="26"/>
       <c r="O33" s="26"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="30"/>
-      <c r="AB33" s="30"/>
-      <c r="AC33" s="30"/>
-      <c r="AD33" s="30"/>
-      <c r="AE33" s="30"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="33"/>
+      <c r="AA33" s="33"/>
+      <c r="AB33" s="33"/>
+      <c r="AC33" s="33"/>
+      <c r="AD33" s="33"/>
+      <c r="AE33" s="33"/>
     </row>
     <row r="34" spans="1:31" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
@@ -6678,128 +6678,128 @@
       </c>
     </row>
     <row r="55" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="C55" s="29" t="s">
+      <c r="C55" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="D55" s="35" t="s">
+      <c r="D55" s="37" t="s">
         <v>258</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F55" s="29" t="s">
+      <c r="F55" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="G55" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="I55" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="J55" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K55" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="L55" s="28" t="s">
+      <c r="G55" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="34" t="s">
         <v>31</v>
       </c>
       <c r="M55" s="27"/>
       <c r="N55" s="27"/>
       <c r="O55" s="27"/>
-      <c r="P55" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q55" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="R55" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="S55" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="T55" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="U55" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="V55" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="W55" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="X55" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y55" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z55" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA55" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB55" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC55" s="29" t="s">
+      <c r="P55" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q55" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="R55" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="S55" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="T55" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="U55" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="V55" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="W55" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="X55" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y55" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z55" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA55" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB55" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC55" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="AD55" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE55" s="29" t="s">
+      <c r="AD55" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE55" s="32" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="36"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="38"/>
       <c r="E56" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F56" s="30"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
       <c r="M56" s="27"/>
       <c r="N56" s="27"/>
       <c r="O56" s="27"/>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="28"/>
-      <c r="R56" s="28"/>
-      <c r="S56" s="28"/>
-      <c r="T56" s="28"/>
-      <c r="U56" s="28"/>
-      <c r="V56" s="28"/>
-      <c r="W56" s="28"/>
-      <c r="X56" s="28"/>
-      <c r="Y56" s="28"/>
-      <c r="Z56" s="28"/>
-      <c r="AA56" s="28"/>
-      <c r="AB56" s="28"/>
-      <c r="AC56" s="30"/>
-      <c r="AD56" s="32"/>
-      <c r="AE56" s="30"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="34"/>
+      <c r="T56" s="34"/>
+      <c r="U56" s="34"/>
+      <c r="V56" s="34"/>
+      <c r="W56" s="34"/>
+      <c r="X56" s="34"/>
+      <c r="Y56" s="34"/>
+      <c r="Z56" s="34"/>
+      <c r="AA56" s="34"/>
+      <c r="AB56" s="34"/>
+      <c r="AC56" s="33"/>
+      <c r="AD56" s="31"/>
+      <c r="AE56" s="33"/>
     </row>
     <row r="57" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -11151,10 +11151,10 @@
       <c r="A109" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="B109" s="38" t="s">
+      <c r="B109" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C109" s="38" t="s">
+      <c r="C109" s="28" t="s">
         <v>31</v>
       </c>
       <c r="D109" s="13" t="s">
@@ -11195,10 +11195,10 @@
       <c r="A110" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="B110" s="38" t="s">
+      <c r="B110" s="28" t="s">
         <v>457</v>
       </c>
-      <c r="C110" s="38" t="s">
+      <c r="C110" s="28" t="s">
         <v>460</v>
       </c>
       <c r="D110" s="13" t="s">
@@ -11348,7 +11348,7 @@
       </c>
     </row>
     <row r="113" spans="1:31" ht="60" x14ac:dyDescent="0.25">
-      <c r="A113" s="39" t="s">
+      <c r="A113" s="29" t="s">
         <v>438</v>
       </c>
       <c r="B113" s="24" t="s">
@@ -11462,7 +11462,7 @@
       </c>
     </row>
     <row r="115" spans="1:31" ht="75" x14ac:dyDescent="0.25">
-      <c r="A115" s="39" t="s">
+      <c r="A115" s="29" t="s">
         <v>445</v>
       </c>
       <c r="B115" s="24" t="s">
@@ -11578,7 +11578,7 @@
       </c>
     </row>
     <row r="117" spans="1:31" ht="90" x14ac:dyDescent="0.25">
-      <c r="A117" s="39" t="s">
+      <c r="A117" s="29" t="s">
         <v>454</v>
       </c>
       <c r="B117" s="24" t="s">
@@ -11695,7 +11695,7 @@
       </c>
     </row>
     <row r="119" spans="1:31" ht="75" x14ac:dyDescent="0.25">
-      <c r="A119" s="39" t="s">
+      <c r="A119" s="29" t="s">
         <v>474</v>
       </c>
       <c r="B119" s="26" t="s">
@@ -11813,7 +11813,7 @@
       </c>
     </row>
     <row r="121" spans="1:31" ht="75" x14ac:dyDescent="0.25">
-      <c r="A121" s="39" t="s">
+      <c r="A121" s="29" t="s">
         <v>476</v>
       </c>
       <c r="B121" s="26" t="s">
@@ -11934,7 +11934,7 @@
       </c>
     </row>
     <row r="123" spans="1:31" ht="75" x14ac:dyDescent="0.25">
-      <c r="A123" s="39" t="s">
+      <c r="A123" s="29" t="s">
         <v>478</v>
       </c>
       <c r="B123" s="26" t="s">
@@ -12514,29 +12514,13 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="AE32:AE33"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="F55:F56"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="D55:D56"/>
-    <mergeCell ref="AA32:AA33"/>
-    <mergeCell ref="AB32:AB33"/>
-    <mergeCell ref="AC32:AC33"/>
-    <mergeCell ref="AD32:AD33"/>
-    <mergeCell ref="AE32:AE33"/>
-    <mergeCell ref="Z32:Z33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="Y32:Y33"/>
     <mergeCell ref="K32:K33"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -12546,12 +12530,33 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="D32:D33"/>
     <mergeCell ref="E32:E33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
     <mergeCell ref="F32:F33"/>
+    <mergeCell ref="AD32:AD33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="AC32:AC33"/>
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="H32:H33"/>
     <mergeCell ref="I32:I33"/>
     <mergeCell ref="J32:J33"/>
     <mergeCell ref="AC55:AC56"/>
+    <mergeCell ref="W55:W56"/>
+    <mergeCell ref="X55:X56"/>
+    <mergeCell ref="Y55:Y56"/>
+    <mergeCell ref="Z55:Z56"/>
+    <mergeCell ref="AA55:AA56"/>
     <mergeCell ref="AD55:AD56"/>
     <mergeCell ref="AE55:AE56"/>
     <mergeCell ref="G55:G56"/>
@@ -12568,11 +12573,6 @@
     <mergeCell ref="U55:U56"/>
     <mergeCell ref="V55:V56"/>
     <mergeCell ref="AB55:AB56"/>
-    <mergeCell ref="W55:W56"/>
-    <mergeCell ref="X55:X56"/>
-    <mergeCell ref="Y55:Y56"/>
-    <mergeCell ref="Z55:Z56"/>
-    <mergeCell ref="AA55:AA56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12582,7 +12582,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AN141"/>
+  <dimension ref="A1:AK141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
@@ -12608,21 +12608,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="33" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="39"/>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12638,12 +12638,12 @@
       <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="34"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="39"/>
       <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
@@ -12694,8 +12694,8 @@
       </c>
     </row>
     <row r="2" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
